--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N2">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q2">
-        <v>0.4247284385097778</v>
+        <v>0.2424543749035556</v>
       </c>
       <c r="R2">
-        <v>3.822555946588</v>
+        <v>2.182089374132</v>
       </c>
       <c r="S2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="T2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>23.672064</v>
       </c>
       <c r="O3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q3">
         <v>2.606694041258667</v>
@@ -638,10 +638,10 @@
         <v>23.460246371328</v>
       </c>
       <c r="S3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="T3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N4">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O4">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P4">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q4">
-        <v>2.159368075512444</v>
+        <v>1.643167079039111</v>
       </c>
       <c r="R4">
-        <v>19.434312679612</v>
+        <v>14.788503711352</v>
       </c>
       <c r="S4">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="T4">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N5">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q5">
-        <v>0.8312497101431112</v>
+        <v>0.6896559085653333</v>
       </c>
       <c r="R5">
-        <v>7.481247391288</v>
+        <v>6.206903177088</v>
       </c>
       <c r="S5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="T5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N6">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O6">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P6">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q6">
-        <v>1.818615437170667</v>
+        <v>1.601852103263111</v>
       </c>
       <c r="R6">
-        <v>16.367538934536</v>
+        <v>14.416668929368</v>
       </c>
       <c r="S6">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="T6">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
     </row>
   </sheetData>
